--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,40 +540,40 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>15.933008</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N2">
-        <v>47.799024</v>
+        <v>0.119956</v>
       </c>
       <c r="O2">
-        <v>0.7524552897049799</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P2">
-        <v>0.7524552897049799</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q2">
-        <v>0.3343329288693333</v>
+        <v>0.0008390389062222221</v>
       </c>
       <c r="R2">
-        <v>3.008996359824</v>
+        <v>0.007551350155999999</v>
       </c>
       <c r="S2">
-        <v>0.02380546909906346</v>
+        <v>7.334851854187912E-05</v>
       </c>
       <c r="T2">
-        <v>0.02380546909906346</v>
+        <v>7.33485185418791E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +602,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.241682666666667</v>
+        <v>15.933008</v>
       </c>
       <c r="N3">
-        <v>15.725048</v>
+        <v>47.799024</v>
       </c>
       <c r="O3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q3">
-        <v>0.1099897218497778</v>
+        <v>0.3343329288693333</v>
       </c>
       <c r="R3">
-        <v>0.9899074966479999</v>
+        <v>3.008996359824</v>
       </c>
       <c r="S3">
-        <v>0.007831585520350574</v>
+        <v>0.02922727998722636</v>
       </c>
       <c r="T3">
-        <v>0.007831585520350574</v>
+        <v>0.02922727998722636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6422786666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H4">
-        <v>1.926836</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I4">
-        <v>0.968362945380586</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J4">
-        <v>0.968362945380586</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.933008</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N4">
-        <v>47.799024</v>
+        <v>18.188806</v>
       </c>
       <c r="O4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q4">
-        <v>10.23343113422934</v>
+        <v>0.1272226140562222</v>
       </c>
       <c r="R4">
-        <v>92.10088020806401</v>
+        <v>1.145003526506</v>
       </c>
       <c r="S4">
-        <v>0.7286498206059164</v>
+        <v>0.01112176109694923</v>
       </c>
       <c r="T4">
-        <v>0.7286498206059164</v>
+        <v>0.01112176109694923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -717,46 +720,170 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H5">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I5">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J5">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03998533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.119956</v>
+      </c>
+      <c r="O5">
+        <v>0.001814551768531471</v>
+      </c>
+      <c r="P5">
+        <v>0.00181455176853147</v>
+      </c>
+      <c r="Q5">
+        <v>0.01991774748044444</v>
+      </c>
+      <c r="R5">
+        <v>0.179259727324</v>
+      </c>
+      <c r="S5">
+        <v>0.001741203249989592</v>
+      </c>
+      <c r="T5">
+        <v>0.001741203249989591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4981263333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.494379</v>
+      </c>
+      <c r="I6">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="J6">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.241682666666667</v>
-      </c>
-      <c r="N5">
-        <v>15.725048</v>
-      </c>
-      <c r="O5">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="P5">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="Q5">
-        <v>3.366620954236445</v>
-      </c>
-      <c r="R5">
-        <v>30.29958858812801</v>
-      </c>
-      <c r="S5">
-        <v>0.2397131247746696</v>
-      </c>
-      <c r="T5">
-        <v>0.2397131247746696</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.933008</v>
+      </c>
+      <c r="N6">
+        <v>47.799024</v>
+      </c>
+      <c r="O6">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="P6">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="Q6">
+        <v>7.936650854010666</v>
+      </c>
+      <c r="R6">
+        <v>71.429857686096</v>
+      </c>
+      <c r="S6">
+        <v>0.693819533288293</v>
+      </c>
+      <c r="T6">
+        <v>0.693819533288293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4981263333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.494379</v>
+      </c>
+      <c r="I7">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="J7">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.062935333333333</v>
+      </c>
+      <c r="N7">
+        <v>18.188806</v>
+      </c>
+      <c r="O7">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="P7">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="Q7">
+        <v>3.020107746830444</v>
+      </c>
+      <c r="R7">
+        <v>27.180969721474</v>
+      </c>
+      <c r="S7">
+        <v>0.2640168738589998</v>
+      </c>
+      <c r="T7">
+        <v>0.2640168738589998</v>
       </c>
     </row>
   </sheetData>
